--- a/Experiment 4/exp8_uniformDist/merge_exp8.xlsx
+++ b/Experiment 4/exp8_uniformDist/merge_exp8.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20376"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17E7C77-4BC3-4982-8EB0-058DEE881BFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BA789D-4F26-436F-B9F5-3BE0D62EE691}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,6 +163,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="3000" b="1"/>
+              <a:t>exp 8</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="3000" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
